--- a/fhir/ig/urgencia/observations-summary.xlsx
+++ b/fhir/ig/urgencia/observations-summary.xlsx
@@ -50,7 +50,7 @@
     <t>indicacion-term-urg</t>
   </si>
   <si>
-    <t>Observation Indicaciones</t>
+    <t>Observación Indicaciones</t>
   </si>
   <si>
     <t/>
@@ -74,7 +74,7 @@
     <t>motivo-consulta-categorizacion</t>
   </si>
   <si>
-    <t>Motivo Consulta Categorización</t>
+    <t>Observación Motivo Consulta</t>
   </si>
   <si>
     <t>null#29299-5</t>
@@ -86,7 +86,7 @@
     <t>observacion-anamnesis</t>
   </si>
   <si>
-    <t>Observation Anamnesis</t>
+    <t>Observación Anamnesis</t>
   </si>
   <si>
     <t>null#84100007</t>
@@ -95,7 +95,7 @@
     <t>observacion-atencion</t>
   </si>
   <si>
-    <t>Observation Atención</t>
+    <t>Observación Atención</t>
   </si>
   <si>
     <t>CSEventosUrgencia#atencion</t>
@@ -116,7 +116,7 @@
     <t>observacion-egreso</t>
   </si>
   <si>
-    <t>Observación Egreso Urgencia</t>
+    <t>Observación Egreso</t>
   </si>
   <si>
     <t>CSEventosUrgencia#egreso</t>
@@ -125,7 +125,7 @@
     <t>observacion-evol-clin</t>
   </si>
   <si>
-    <t>Observation Evolución Clínica Urgencia</t>
+    <t>Observación Evolución Clínica</t>
   </si>
   <si>
     <t>null#34765-8</t>
@@ -134,7 +134,7 @@
     <t>observacion-morb-prev</t>
   </si>
   <si>
-    <t>Observation Morbilidad Previa</t>
+    <t>Observación Morbilidad Previa</t>
   </si>
   <si>
     <t>null#11348-0</t>

--- a/fhir/ig/urgencia/observations-summary.xlsx
+++ b/fhir/ig/urgencia/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="46">
   <si>
     <t>Profile</t>
   </si>
@@ -83,7 +83,55 @@
     <t>dateTime, Period, Timing, instant</t>
   </si>
   <si>
-    <t>observacion-anamnesis</t>
+    <t>observacion-atencion</t>
+  </si>
+  <si>
+    <t>Observación Atención</t>
+  </si>
+  <si>
+    <t>CSEventosUrgencia#atencion</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>booleanĵ</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>observacion-egreso</t>
+  </si>
+  <si>
+    <t>Observación Egreso</t>
+  </si>
+  <si>
+    <t>CSEventosUrgencia#egreso</t>
+  </si>
+  <si>
+    <t>observacion-evol-clin</t>
+  </si>
+  <si>
+    <t>Observación Evolución Clínica</t>
+  </si>
+  <si>
+    <t>null#34765-8</t>
+  </si>
+  <si>
+    <t>observacion-morb-prev</t>
+  </si>
+  <si>
+    <t>Observación Morbilidad Previa</t>
+  </si>
+  <si>
+    <t>null#11348-0</t>
+  </si>
+  <si>
+    <t>ObservacionAnamnesis</t>
   </si>
   <si>
     <t>Observación Anamnesis</t>
@@ -92,52 +140,16 @@
     <t>null#84100007</t>
   </si>
   <si>
-    <t>observacion-atencion</t>
-  </si>
-  <si>
-    <t>Observación Atención</t>
-  </si>
-  <si>
-    <t>CSEventosUrgencia#atencion</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>booleanĵ</t>
-  </si>
-  <si>
-    <t>CodeableConceptĵ</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
-    <t>observacion-egreso</t>
-  </si>
-  <si>
-    <t>Observación Egreso</t>
-  </si>
-  <si>
-    <t>CSEventosUrgencia#egreso</t>
-  </si>
-  <si>
-    <t>observacion-evol-clin</t>
-  </si>
-  <si>
-    <t>Observación Evolución Clínica</t>
-  </si>
-  <si>
-    <t>null#34765-8</t>
-  </si>
-  <si>
-    <t>observacion-morb-prev</t>
-  </si>
-  <si>
-    <t>Observación Morbilidad Previa</t>
-  </si>
-  <si>
-    <t>null#11348-0</t>
+    <t>ObservationSignosVitales</t>
+  </si>
+  <si>
+    <t>Observación Signos Vitales</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/urgencia/ValueSet/SignosVitales (extensible)</t>
   </si>
 </sst>
 </file>
@@ -271,7 +283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -399,13 +411,13 @@
         <v>25</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -419,28 +431,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -457,7 +469,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>13</v>
@@ -475,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -492,25 +504,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>31</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -527,25 +539,25 @@
         <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>30</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -562,7 +574,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>13</v>
@@ -580,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -597,25 +609,25 @@
         <v>13</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>32</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -632,7 +644,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>13</v>
@@ -650,7 +662,7 @@
         <v>13</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -667,25 +679,25 @@
         <v>13</v>
       </c>
       <c r="B12" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>32</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -702,7 +714,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>13</v>
@@ -720,7 +732,7 @@
         <v>13</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -737,25 +749,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>32</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -772,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>13</v>
@@ -790,7 +802,7 @@
         <v>13</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -807,25 +819,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>32</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -842,7 +854,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>13</v>
@@ -860,7 +872,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -877,25 +889,25 @@
         <v>13</v>
       </c>
       <c r="B18" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>32</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -912,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>13</v>
@@ -930,7 +942,7 @@
         <v>13</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -944,10 +956,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -956,16 +968,16 @@
         <v>13</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>18</v>
@@ -979,10 +991,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -991,16 +1003,16 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1017,7 +1029,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>13</v>
@@ -1035,7 +1047,7 @@
         <v>13</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1052,7 +1064,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1070,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1087,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1105,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1122,7 +1134,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1140,7 +1152,7 @@
         <v>13</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1157,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>13</v>
@@ -1175,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1192,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>13</v>
@@ -1210,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1227,7 +1239,7 @@
         <v>13</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>13</v>
@@ -1245,7 +1257,7 @@
         <v>13</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1262,7 +1274,7 @@
         <v>13</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
@@ -1280,7 +1292,7 @@
         <v>13</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>18</v>
@@ -1297,7 +1309,7 @@
         <v>13</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>13</v>
@@ -1315,7 +1327,7 @@
         <v>13</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -1332,7 +1344,7 @@
         <v>13</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>13</v>
@@ -1350,7 +1362,7 @@
         <v>13</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1367,7 +1379,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>13</v>
@@ -1385,7 +1397,7 @@
         <v>13</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>18</v>
@@ -1402,7 +1414,7 @@
         <v>13</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>13</v>
@@ -1420,7 +1432,7 @@
         <v>13</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1437,7 +1449,7 @@
         <v>13</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>13</v>
@@ -1455,7 +1467,7 @@
         <v>13</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -1469,7 +1481,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>34</v>
@@ -1481,16 +1493,16 @@
         <v>13</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -1569,6 +1581,41 @@
         <v>13</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/fhir/ig/urgencia/observations-summary.xlsx
+++ b/fhir/ig/urgencia/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
   <si>
     <t>Profile</t>
   </si>
@@ -47,16 +47,16 @@
     <t>Method</t>
   </si>
   <si>
-    <t>indicacion-term-urg</t>
-  </si>
-  <si>
-    <t>Observación Indicaciones</t>
+    <t>observacion-evol-clin</t>
+  </si>
+  <si>
+    <t>Observación Evolución Clínica</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>null#8653-8</t>
+    <t>null#97669-6</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
@@ -71,15 +71,6 @@
     <t>optional</t>
   </si>
   <si>
-    <t>observacion-evol-clin</t>
-  </si>
-  <si>
-    <t>Observación Evolución Clínica</t>
-  </si>
-  <si>
-    <t>null#34765-8</t>
-  </si>
-  <si>
     <t>ObservacionAnamnesis</t>
   </si>
   <si>
@@ -89,6 +80,102 @@
     <t>null#84100007</t>
   </si>
   <si>
+    <t>ObservacionHospitalizacionReciente</t>
+  </si>
+  <si>
+    <t>Observación Hospitalización Reciente</t>
+  </si>
+  <si>
+    <t>null#hosp-reciente</t>
+  </si>
+  <si>
+    <t>booleanĵ</t>
+  </si>
+  <si>
+    <t>ObservacionLesionAutoInfligida</t>
+  </si>
+  <si>
+    <t>Observación Lesión Auto Infligida</t>
+  </si>
+  <si>
+    <t>null#276853009</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>ObservacionMedLegalAlcoholemia</t>
+  </si>
+  <si>
+    <t>Observación Medico Legal Alcoholemia</t>
+  </si>
+  <si>
+    <t>null#50022-3</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>ObservacionMedLegalCert</t>
+  </si>
+  <si>
+    <t>Observación Medico Legal Certificación</t>
+  </si>
+  <si>
+    <t>null#ml-cert</t>
+  </si>
+  <si>
+    <t>ObservacionMedLegalExamenToxico</t>
+  </si>
+  <si>
+    <t>Observación Medico Legal Examen Toxicológico</t>
+  </si>
+  <si>
+    <t>null#29587-3</t>
+  </si>
+  <si>
+    <t>ObservacionMedLegalLesiones</t>
+  </si>
+  <si>
+    <t>Observación Medico Legal Lesiones</t>
+  </si>
+  <si>
+    <t>null#ml-lesiones</t>
+  </si>
+  <si>
+    <t>ObservacionMedLegalVS</t>
+  </si>
+  <si>
+    <t>Observación Medico Legal Violencia Sexual</t>
+  </si>
+  <si>
+    <t>null#ml-vs</t>
+  </si>
+  <si>
+    <t>ObservacionReconsultaUrgencia</t>
+  </si>
+  <si>
+    <t>Observación Reconsulta Urgencia</t>
+  </si>
+  <si>
+    <t>null#reconsulta</t>
+  </si>
+  <si>
+    <t>ObservationResultadoExamen</t>
+  </si>
+  <si>
+    <t>Observation Resultado Examen</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/urgencia/ValueSet/CodigoExamen (required)</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
     <t>ObservationSignosVitales</t>
   </si>
   <si>
@@ -99,12 +186,6 @@
   </si>
   <si>
     <t>https://interoperabilidad.minsal.cl/fhir/ig/urgencia/ValueSet/SignosVitales (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
   </si>
 </sst>
 </file>
@@ -238,7 +319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -372,7 +453,7 @@
         <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -386,36 +467,316 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s" s="2">
+      <c r="I11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>13</v>
       </c>
     </row>
